--- a/summary-tables/SummaryTable_County_wTotals_formatted_Scenario2.xlsx
+++ b/summary-tables/SummaryTable_County_wTotals_formatted_Scenario2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Centers-Capacity-Tool\summary-tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7423EB-DD2D-4711-86FD-F20EB85BD434}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458EC1F2-BCC2-4C52-ADE9-BF032B312EFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15630" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitsDensity" sheetId="1" r:id="rId1"/>
@@ -721,6 +721,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -742,9 +745,6 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1104,7 +1104,7 @@
   <dimension ref="B2:M8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,35 +1115,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="18" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="18" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="20"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="23"/>
     </row>
     <row r="3" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="22"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="10" t="s">
         <v>23</v>
       </c>
@@ -1173,7 +1173,7 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="str">
+      <c r="B4" s="16" t="str">
         <f>SummaryTable_County_wTotals!C2</f>
         <v>Weber</v>
       </c>
@@ -1203,11 +1203,11 @@
       </c>
       <c r="I4" s="1">
         <f>SummaryTable_County_wTotals!I2</f>
-        <v>57100</v>
+        <v>84100</v>
       </c>
       <c r="J4" s="12">
         <f>SummaryTable_County_wTotals!J2</f>
-        <v>47000</v>
+        <v>74000</v>
       </c>
       <c r="K4" s="4">
         <f>SummaryTable_County_wTotals!K2</f>
@@ -1215,15 +1215,15 @@
       </c>
       <c r="L4" s="1">
         <f>SummaryTable_County_wTotals!L2</f>
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M4" s="12">
         <f>SummaryTable_County_wTotals!M2</f>
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="24" t="str">
+      <c r="B5" s="17" t="str">
         <f>SummaryTable_County_wTotals!C3</f>
         <v>Davis</v>
       </c>
@@ -1253,11 +1253,11 @@
       </c>
       <c r="I5" s="2">
         <f>SummaryTable_County_wTotals!I3</f>
-        <v>78500</v>
+        <v>109200</v>
       </c>
       <c r="J5" s="13">
         <f>SummaryTable_County_wTotals!J3</f>
-        <v>68200</v>
+        <v>98900</v>
       </c>
       <c r="K5" s="6">
         <f>SummaryTable_County_wTotals!K3</f>
@@ -1265,15 +1265,15 @@
       </c>
       <c r="L5" s="2">
         <f>SummaryTable_County_wTotals!L3</f>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="M5" s="13">
         <f>SummaryTable_County_wTotals!M3</f>
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="str">
+      <c r="B6" s="16" t="str">
         <f>SummaryTable_County_wTotals!C4</f>
         <v>Salt Lake</v>
       </c>
@@ -1303,11 +1303,11 @@
       </c>
       <c r="I6" s="1">
         <f>SummaryTable_County_wTotals!I4</f>
-        <v>298900</v>
+        <v>365800</v>
       </c>
       <c r="J6" s="12">
         <f>SummaryTable_County_wTotals!J4</f>
-        <v>253900</v>
+        <v>320800</v>
       </c>
       <c r="K6" s="4">
         <f>SummaryTable_County_wTotals!K4</f>
@@ -1315,15 +1315,15 @@
       </c>
       <c r="L6" s="1">
         <f>SummaryTable_County_wTotals!L4</f>
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M6" s="12">
         <f>SummaryTable_County_wTotals!M4</f>
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="str">
+      <c r="B7" s="17" t="str">
         <f>SummaryTable_County_wTotals!C5</f>
         <v>Utah</v>
       </c>
@@ -1353,11 +1353,11 @@
       </c>
       <c r="I7" s="2">
         <f>SummaryTable_County_wTotals!I5</f>
-        <v>104400</v>
+        <v>144800</v>
       </c>
       <c r="J7" s="13">
         <f>SummaryTable_County_wTotals!J5</f>
-        <v>85800</v>
+        <v>126200</v>
       </c>
       <c r="K7" s="6">
         <f>SummaryTable_County_wTotals!K5</f>
@@ -1365,15 +1365,15 @@
       </c>
       <c r="L7" s="2">
         <f>SummaryTable_County_wTotals!L5</f>
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="M7" s="13">
         <f>SummaryTable_County_wTotals!M5</f>
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="8">
@@ -1402,11 +1402,11 @@
       </c>
       <c r="I8" s="14">
         <f>SummaryTable_County_wTotals!I6</f>
-        <v>538800</v>
+        <v>703900</v>
       </c>
       <c r="J8" s="15">
         <f>SummaryTable_County_wTotals!J6</f>
-        <v>454800</v>
+        <v>619900</v>
       </c>
       <c r="K8" s="8">
         <f>SummaryTable_County_wTotals!K6</f>
@@ -1414,11 +1414,11 @@
       </c>
       <c r="L8" s="14">
         <f>SummaryTable_County_wTotals!L6</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M8" s="15">
         <f>SummaryTable_County_wTotals!M6</f>
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1440,7 +1440,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M6"/>
+      <selection activeCell="D5" sqref="A1:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,19 +1527,19 @@
         <v>10100</v>
       </c>
       <c r="I2">
-        <v>57100</v>
+        <v>84100</v>
       </c>
       <c r="J2">
-        <v>47000</v>
+        <v>74000</v>
       </c>
       <c r="K2">
         <v>10</v>
       </c>
       <c r="L2">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M2">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1568,19 +1568,19 @@
         <v>10300</v>
       </c>
       <c r="I3">
-        <v>78500</v>
+        <v>109200</v>
       </c>
       <c r="J3">
-        <v>68200</v>
+        <v>98900</v>
       </c>
       <c r="K3">
         <v>9</v>
       </c>
       <c r="L3">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="M3">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1609,19 +1609,19 @@
         <v>45000</v>
       </c>
       <c r="I4">
-        <v>298900</v>
+        <v>365800</v>
       </c>
       <c r="J4">
-        <v>253900</v>
+        <v>320800</v>
       </c>
       <c r="K4">
         <v>19</v>
       </c>
       <c r="L4">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M4">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1650,19 +1650,19 @@
         <v>18600</v>
       </c>
       <c r="I5">
-        <v>104400</v>
+        <v>144800</v>
       </c>
       <c r="J5">
-        <v>85800</v>
+        <v>126200</v>
       </c>
       <c r="K5">
         <v>16</v>
       </c>
       <c r="L5">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="M5">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1688,19 +1688,19 @@
         <v>84000</v>
       </c>
       <c r="I6">
-        <v>538800</v>
+        <v>703900</v>
       </c>
       <c r="J6">
-        <v>454800</v>
+        <v>619900</v>
       </c>
       <c r="K6">
         <v>16</v>
       </c>
       <c r="L6">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M6">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
